--- a/Álbuns.xlsx
+++ b/Álbuns.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/analu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/analu/Desktop/TS - Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B7F605C-12D0-D243-B59E-0C24A991AF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E33EB3-3CF0-CE48-B78A-0AA6A2CCF56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="500" windowWidth="14000" windowHeight="15900" xr2:uid="{982559B4-99A6-2945-B8AB-0B695E7A6B3F}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17520" xr2:uid="{982559B4-99A6-2945-B8AB-0B695E7A6B3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -78,16 +78,96 @@
   </si>
   <si>
     <t>Vendas (US)</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Capa</t>
+  </si>
+  <si>
+    <t>https://github.com/naluisaelias/ts-Dashboard/blob/2f4c44a1effdbbe28d00dee8cd27675fb53112df/imgs/1989-logo.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/naluisaelias/ts-Dashboard/blob/main/imgs/debut-cover.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/naluisaelias/ts-Dashboard/blob/main/imgs/debut-logo.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/naluisaelias/ts-Dashboard/blob/main/imgs/evermore-cover.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/naluisaelias/ts-Dashboard/blob/main/imgs/evermore-logo.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/naluisaelias/ts-Dashboard/blob/main/imgs/fearless-cover.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/naluisaelias/ts-Dashboard/blob/main/imgs/fearless-logo.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/naluisaelias/ts-Dashboard/blob/main/imgs/folklore-cover.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/naluisaelias/ts-Dashboard/blob/main/imgs/folklore-logo.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/naluisaelias/ts-Dashboard/blob/main/imgs/lover-cover.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/naluisaelias/ts-Dashboard/blob/main/imgs/lover-logo.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/naluisaelias/ts-Dashboard/blob/main/imgs/ttpd-logo.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/naluisaelias/ts-Dashboard/blob/main/imgs/ttpd-cover.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/naluisaelias/ts-Dashboard/blob/main/imgs/speakNow-logo.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/naluisaelias/ts-Dashboard/blob/main/imgs/speakNow-cover.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/naluisaelias/ts-Dashboard/blob/main/imgs/red-cover.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/naluisaelias/ts-Dashboard/blob/main/imgs/1989-cover.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/naluisaelias/ts-Dashboard/blob/main/imgs/reputation-cover.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/naluisaelias/ts-Dashboard/blob/main/imgs/midnights-cover.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/naluisaelias/ts-Dashboard/blob/main/imgs/red-logo.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/naluisaelias/ts-Dashboard/blob/main/imgs/reputation-logo.png?raw=true</t>
+  </si>
+  <si>
+    <t>https://github.com/naluisaelias/ts-Dashboard/blob/main/imgs/midnights-logo.png?raw=true</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -110,16 +190,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -452,18 +538,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6ECA2C-2CB3-3E4A-89A7-8A8003764574}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="10.83203125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,8 +564,14 @@
       <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -490,8 +584,14 @@
       <c r="D2" s="1">
         <v>5871000</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -504,8 +604,14 @@
       <c r="D3" s="1">
         <v>7286000</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -518,8 +624,14 @@
       <c r="D4" s="1">
         <v>4817000</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -532,8 +644,14 @@
       <c r="D5" s="1">
         <v>4582000</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -546,8 +664,14 @@
       <c r="D6" s="1">
         <v>6472000</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -560,8 +684,14 @@
       <c r="D7" s="1">
         <v>2478000</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -574,8 +704,14 @@
       <c r="D8" s="1">
         <v>2317000</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -588,8 +724,14 @@
       <c r="D9" s="1">
         <v>2289000</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -602,8 +744,14 @@
       <c r="D10" s="1">
         <v>913000</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -616,8 +764,14 @@
       <c r="D11" s="1">
         <v>2814000</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="E11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -630,8 +784,20 @@
       <c r="D12" s="1">
         <v>3491000</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F5" r:id="rId1" xr:uid="{211E9E06-6BCD-1945-A9A9-BA4331A29F6C}"/>
+    <hyperlink ref="F6" r:id="rId2" xr:uid="{ABEB98A2-EC32-7E4D-8337-243AD0F7E614}"/>
+    <hyperlink ref="F7" r:id="rId3" xr:uid="{D511E1C9-48B7-0D4E-912A-9861BA5898B0}"/>
+    <hyperlink ref="F11" r:id="rId4" xr:uid="{B04B2B1F-BD07-AE44-A0DD-F0CD6B96E7D3}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Álbuns.xlsx
+++ b/Álbuns.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/analu/Desktop/TS - Dashboard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/analu/Desktop/ts-Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E33EB3-3CF0-CE48-B78A-0AA6A2CCF56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5612583F-1AC1-D84E-966C-6E114DF7D44C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17520" xr2:uid="{982559B4-99A6-2945-B8AB-0B695E7A6B3F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{982559B4-99A6-2945-B8AB-0B695E7A6B3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -150,6 +150,30 @@
   </si>
   <si>
     <t>https://github.com/naluisaelias/ts-Dashboard/blob/main/imgs/midnights-logo.png?raw=true</t>
+  </si>
+  <si>
+    <t>Gênero</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Country; POP; POP-Rock</t>
+  </si>
+  <si>
+    <t>Country, POP</t>
+  </si>
+  <si>
+    <t>POP</t>
+  </si>
+  <si>
+    <t>POP; POP-Rock</t>
+  </si>
+  <si>
+    <t>POP; Indie; Folk</t>
+  </si>
+  <si>
+    <t>POP; Synth-POP</t>
   </si>
 </sst>
 </file>
@@ -194,7 +218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -202,7 +226,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -538,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6ECA2C-2CB3-3E4A-89A7-8A8003764574}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -551,7 +574,7 @@
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,8 +593,11 @@
       <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -590,8 +616,11 @@
       <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -610,8 +639,11 @@
       <c r="F3" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -630,8 +662,11 @@
       <c r="F4" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -644,14 +679,17 @@
       <c r="D5" s="1">
         <v>4582000</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" t="s">
         <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -664,14 +702,17 @@
       <c r="D6" s="1">
         <v>6472000</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -684,14 +725,17 @@
       <c r="D7" s="1">
         <v>2478000</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" t="s">
         <v>33</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -710,8 +754,11 @@
       <c r="F8" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -730,8 +777,11 @@
       <c r="F9" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -750,8 +800,11 @@
       <c r="F10" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -764,14 +817,17 @@
       <c r="D11" s="1">
         <v>2814000</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" t="s">
         <v>34</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -789,6 +845,9 @@
       </c>
       <c r="F12" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
